--- a/medicine/Mort/Cimetière_de_Saint-Lô/Cimetière_de_Saint-Lô.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Lô/Cimetière_de_Saint-Lô.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-L%C3%B4</t>
+          <t>Cimetière_de_Saint-Lô</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Saint-Lô est le cimetière communal de Saint-Lô dans le département de la Manche. Il se trouve rue du Général-Gerhardt. Il est organisé en vingt divisions. L'écrivain Octave Feuillet y est inhumé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-L%C3%B4</t>
+          <t>Cimetière_de_Saint-Lô</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière abrite près de cinq mille sépultures. Il s'étend sur 6 hectares sur un terrain plat et peu arboré. Il est d'aspect austère, mais présente encore quelques tombes anciennes intéressantes, comme la chapelle Blanchet en forme de temple grec qui servit de QG aux Américains en juin 1944[1], la chapelle Defrance de style néo-antique, le sarcophage de Louis Heulin, figuré sculpté en bronze appuyé sur un canon, œuvre de Jules Franceschi (1863), ou le dolmen soutenu par deux allégories de la mort des riches négociants Letenneur.
-On remarque un grand carré destiné aux victimes civiles du bombardement allié du 6 juin 1944. Le cimetière possède un carré militaire restauré par le Souvenir français en 1987-1988 avec deux cent vingt neuf stèles et un monument aux morts de la guerre franco-prussienne représentant une pleureuse (œuvre de Paul Cabet[2]), et un monument aux morts représentant un main tenant une torche. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière abrite près de cinq mille sépultures. Il s'étend sur 6 hectares sur un terrain plat et peu arboré. Il est d'aspect austère, mais présente encore quelques tombes anciennes intéressantes, comme la chapelle Blanchet en forme de temple grec qui servit de QG aux Américains en juin 1944, la chapelle Defrance de style néo-antique, le sarcophage de Louis Heulin, figuré sculpté en bronze appuyé sur un canon, œuvre de Jules Franceschi (1863), ou le dolmen soutenu par deux allégories de la mort des riches négociants Letenneur.
+On remarque un grand carré destiné aux victimes civiles du bombardement allié du 6 juin 1944. Le cimetière possède un carré militaire restauré par le Souvenir français en 1987-1988 avec deux cent vingt neuf stèles et un monument aux morts de la guerre franco-prussienne représentant une pleureuse (œuvre de Paul Cabet), et un monument aux morts représentant un main tenant une torche. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-L%C3%B4</t>
+          <t>Cimetière_de_Saint-Lô</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,18 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Général Michel Jacques François Achard (1778-1865); il repose dans la chapelle de la famille de son beau-père, le général Luc Dagobert de Fontenille (1736-1796, inhumé quant à lui à Perpignan)
-Alexandre Blanchet (1817-1867), chirurgien en chef de l'institution des sourds-muets (chapelle-mausolée[3] en forme de temple grec)
+Alexandre Blanchet (1817-1867), chirurgien en chef de l'institution des sourds-muets (chapelle-mausolée en forme de temple grec)
 Général Luc Dagobert de Fontenille (1736-1794), militaire (chapelle)
 Madeleine Déries (1895-1924), première femme titulaire d'un (double) doctorat
 Alfred Dussaux (1848-1916), maire de Saint-Lô
 Émile Énault (1871-1926), journaliste et personnalité politique
 Roger Ferdinand (1898-1967), dramaturge
-Octave Feuillet (1821-1890), écrivain; avec son épouse et cousine née Valentine Dubois, romancière et fille d'un maire de Saint-Lô[2]
+Octave Feuillet (1821-1890), écrivain; avec son épouse et cousine née Valentine Dubois, romancière et fille d'un maire de Saint-Lô
 Mgr Hamel, camérier de Léon XIII
 Louis Heulin (1840-1860), aspirant de marine de la corvette La Dordogne, mort au combat en Chine (sculpture)
 René-Gabriel Jacqueline (1889-1957), maître-imprimeur
